--- a/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food_TRIPHAMMER_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,1086 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K1570</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22096</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Whole Peeled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>113.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CF096</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fresh Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>25460</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hard Boiled Egg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>131.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HB946</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Peppers - Banana</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B2530</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sausage - Italian Sweet</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>50778</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sausage - Patty (1.5oz)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>111.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FA300</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sundried Tomatoes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EB712</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Arancini - Beef, Pea &amp; Rice</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>36.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EB714</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Arancini - Mozz &amp; Prov</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>230.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>J3088</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Base - Chicken (No MSG)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>125.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12798</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Can - Cranberry Sauce - Jellied</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>81692</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Can - Garbanzo Beans</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>G6708</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mustard - Dijon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>133.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>133.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NH016</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Provolone (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>197.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>113.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HH264</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Muenster (Sliced)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>53.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>159.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Prosciutto</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ham (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DT820</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1082.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>83632</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Roast Beef (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>111.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>335.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>118.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C9108</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>122.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>J2280</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yogurt BIB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>154.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FA326</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Random</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>96.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>288.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RJ748</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Flatbread - Dough (Frozen)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>V2346</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Chicken Wing - Fully Cooked</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>141.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>141.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>56.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>566.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RC608</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PKT Sour Cream</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LF010</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Base - Vegetable</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>70030</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Blue Cheese (Crumbled)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CR064</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Shrimp Peeled Tail Off (21/25)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>123.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>H5846</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Carrots - Shredded Fresh</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>75736</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Honeydew - Fresh (Whole)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>57.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NH166</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lettuce - Arcadian Blend</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mushroom Portobello - 4" Cap</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>130.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>74460</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pepper - Red Bell Fresh</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
